--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/156.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/156.xlsx
@@ -479,13 +479,13 @@
         <v>-5.337180197714759</v>
       </c>
       <c r="E2" t="n">
-        <v>-11.28114256504646</v>
+        <v>-11.2681026314161</v>
       </c>
       <c r="F2" t="n">
-        <v>0.6067338767550191</v>
+        <v>0.4922285961012829</v>
       </c>
       <c r="G2" t="n">
-        <v>-5.200776002383514</v>
+        <v>-5.249479368954734</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-5.219388813579961</v>
       </c>
       <c r="E3" t="n">
-        <v>-11.47425403196192</v>
+        <v>-11.4744373242017</v>
       </c>
       <c r="F3" t="n">
-        <v>0.6795925420692247</v>
+        <v>0.5553204034955608</v>
       </c>
       <c r="G3" t="n">
-        <v>-5.084424707029094</v>
+        <v>-5.130483428426286</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-5.010887858639917</v>
       </c>
       <c r="E4" t="n">
-        <v>-12.02034707579316</v>
+        <v>-12.02714198096801</v>
       </c>
       <c r="F4" t="n">
-        <v>0.6931692601160946</v>
+        <v>0.5777344259605959</v>
       </c>
       <c r="G4" t="n">
-        <v>-4.78008103517033</v>
+        <v>-4.828745124833025</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-4.695324477181218</v>
       </c>
       <c r="E5" t="n">
-        <v>-12.70736566741273</v>
+        <v>-12.71186941959028</v>
       </c>
       <c r="F5" t="n">
-        <v>0.7057378708441516</v>
+        <v>0.5872787147322142</v>
       </c>
       <c r="G5" t="n">
-        <v>-4.867393602821801</v>
+        <v>-4.917013430591943</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-4.237859118197202</v>
       </c>
       <c r="E6" t="n">
-        <v>-13.3076870296144</v>
+        <v>-13.3133690890477</v>
       </c>
       <c r="F6" t="n">
-        <v>0.7395421967814884</v>
+        <v>0.6271578691881118</v>
       </c>
       <c r="G6" t="n">
-        <v>-4.165096293785932</v>
+        <v>-4.23350357613395</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-3.625304982247076</v>
       </c>
       <c r="E7" t="n">
-        <v>-13.58828126411827</v>
+        <v>-13.60973954847586</v>
       </c>
       <c r="F7" t="n">
-        <v>0.8530393701164116</v>
+        <v>0.7292909236564168</v>
       </c>
       <c r="G7" t="n">
-        <v>-4.178175504324816</v>
+        <v>-4.251806615506683</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-2.84641400581868</v>
       </c>
       <c r="E8" t="n">
-        <v>-14.16638498839752</v>
+        <v>-14.19122108688828</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9359791086187462</v>
+        <v>0.8219713354729956</v>
       </c>
       <c r="G8" t="n">
-        <v>-3.766317841529797</v>
+        <v>-3.837382861354686</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-1.91584739580427</v>
       </c>
       <c r="E9" t="n">
-        <v>-14.95698988010084</v>
+        <v>-14.9782517799158</v>
       </c>
       <c r="F9" t="n">
-        <v>1.15748778039791</v>
+        <v>1.041463792614533</v>
       </c>
       <c r="G9" t="n">
-        <v>-3.400152315652402</v>
+        <v>-3.481481700905205</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.8683763510850606</v>
       </c>
       <c r="E10" t="n">
-        <v>-15.55309552078747</v>
+        <v>-15.57887426508283</v>
       </c>
       <c r="F10" t="n">
-        <v>1.203323932646793</v>
+        <v>1.081290577859064</v>
       </c>
       <c r="G10" t="n">
-        <v>-2.699831944345633</v>
+        <v>-2.789972449410917</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>0.2450706687447124</v>
       </c>
       <c r="E11" t="n">
-        <v>-16.1548832209074</v>
+        <v>-16.17753290482359</v>
       </c>
       <c r="F11" t="n">
-        <v>1.148296983803018</v>
+        <v>1.029719996965505</v>
       </c>
       <c r="G11" t="n">
-        <v>-2.256120708736695</v>
+        <v>-2.36015214711705</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>1.35204614842396</v>
       </c>
       <c r="E12" t="n">
-        <v>-16.62638941544933</v>
+        <v>-16.65593874296311</v>
       </c>
       <c r="F12" t="n">
-        <v>1.177257157688916</v>
+        <v>1.062908984669281</v>
       </c>
       <c r="G12" t="n">
-        <v>-1.833697557548404</v>
+        <v>-1.936197196496277</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>2.383349287421666</v>
       </c>
       <c r="E13" t="n">
-        <v>-17.42283347422005</v>
+        <v>-17.45600936962098</v>
       </c>
       <c r="F13" t="n">
-        <v>1.395898615145741</v>
+        <v>1.276627736257617</v>
       </c>
       <c r="G13" t="n">
-        <v>-1.041220466538725</v>
+        <v>-1.145526843278756</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>3.263995346584284</v>
       </c>
       <c r="E14" t="n">
-        <v>-18.23671648037595</v>
+        <v>-18.26891045306376</v>
       </c>
       <c r="F14" t="n">
-        <v>1.600321831716452</v>
+        <v>1.485083382103579</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.8418377865620783</v>
+        <v>-0.9317688147818947</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>3.935815802031436</v>
       </c>
       <c r="E15" t="n">
-        <v>-19.07775292262559</v>
+        <v>-19.10501109714206</v>
       </c>
       <c r="F15" t="n">
-        <v>1.650805751474148</v>
+        <v>1.538159577823937</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.4092026391572404</v>
+        <v>-0.4964759299001863</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>4.355518097291584</v>
       </c>
       <c r="E16" t="n">
-        <v>-20.07258464635699</v>
+        <v>-20.09002359374217</v>
       </c>
       <c r="F16" t="n">
-        <v>1.974395108510249</v>
+        <v>1.859627981799679</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1594222578646063</v>
+        <v>0.06722626125317128</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>4.501397158992945</v>
       </c>
       <c r="E17" t="n">
-        <v>-20.78476664403836</v>
+        <v>-20.80609400536753</v>
       </c>
       <c r="F17" t="n">
-        <v>2.037552377418736</v>
+        <v>1.931688016640539</v>
       </c>
       <c r="G17" t="n">
-        <v>0.2594081746668682</v>
+        <v>0.1791130813385623</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>4.369146795664093</v>
       </c>
       <c r="E18" t="n">
-        <v>-21.69398779948771</v>
+        <v>-21.71439869961796</v>
       </c>
       <c r="F18" t="n">
-        <v>2.158001563562616</v>
+        <v>2.052241941207153</v>
       </c>
       <c r="G18" t="n">
-        <v>0.8189993827279238</v>
+        <v>0.7335197374742943</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>3.970830436911502</v>
       </c>
       <c r="E19" t="n">
-        <v>-22.70020982669141</v>
+        <v>-22.71242494524274</v>
       </c>
       <c r="F19" t="n">
-        <v>2.256769896200597</v>
+        <v>2.151115012267868</v>
       </c>
       <c r="G19" t="n">
-        <v>1.037064778859713</v>
+        <v>0.9623731911476661</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>3.330586386490226</v>
       </c>
       <c r="E20" t="n">
-        <v>-23.05689652531139</v>
+        <v>-23.07683610253935</v>
       </c>
       <c r="F20" t="n">
-        <v>2.557238246418211</v>
+        <v>2.452316531444618</v>
       </c>
       <c r="G20" t="n">
-        <v>1.640593755257602</v>
+        <v>1.552299264893001</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>2.479774208503343</v>
       </c>
       <c r="E21" t="n">
-        <v>-24.01205857143236</v>
+        <v>-24.022925182791</v>
       </c>
       <c r="F21" t="n">
-        <v>2.684102660954536</v>
+        <v>2.590257034185043</v>
       </c>
       <c r="G21" t="n">
-        <v>1.747767346319971</v>
+        <v>1.671177374695874</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>1.460518622151051</v>
       </c>
       <c r="E22" t="n">
-        <v>-24.35032439995404</v>
+        <v>-24.36740985516249</v>
       </c>
       <c r="F22" t="n">
-        <v>2.766191399772159</v>
+        <v>2.669151251109285</v>
       </c>
       <c r="G22" t="n">
-        <v>2.017364046436794</v>
+        <v>1.937343891468165</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>0.3121682682806967</v>
       </c>
       <c r="E23" t="n">
-        <v>-24.88722664719038</v>
+        <v>-24.90596173255689</v>
       </c>
       <c r="F23" t="n">
-        <v>2.70264136177842</v>
+        <v>2.61434687141382</v>
       </c>
       <c r="G23" t="n">
-        <v>2.561061198847995</v>
+        <v>2.470698124634401</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-0.9118131909004014</v>
       </c>
       <c r="E24" t="n">
-        <v>-25.42216504900047</v>
+        <v>-25.42910396950658</v>
       </c>
       <c r="F24" t="n">
-        <v>2.586015128064324</v>
+        <v>2.502931374230731</v>
       </c>
       <c r="G24" t="n">
-        <v>2.353312537355485</v>
+        <v>2.270857214058295</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-2.164901301585478</v>
       </c>
       <c r="E25" t="n">
-        <v>-25.56669098007028</v>
+        <v>-25.57751831452039</v>
       </c>
       <c r="F25" t="n">
-        <v>2.708244867394679</v>
+        <v>2.631733449587632</v>
       </c>
       <c r="G25" t="n">
-        <v>2.262399586422539</v>
+        <v>2.185757245587075</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-3.388623800089387</v>
       </c>
       <c r="E26" t="n">
-        <v>-25.64481275112686</v>
+        <v>-25.65124107182215</v>
       </c>
       <c r="F26" t="n">
-        <v>2.873731575314097</v>
+        <v>2.791014405960071</v>
       </c>
       <c r="G26" t="n">
-        <v>2.264808570145417</v>
+        <v>2.188742290634988</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-4.528569542151916</v>
       </c>
       <c r="E27" t="n">
-        <v>-25.39941062666155</v>
+        <v>-25.40864070016497</v>
       </c>
       <c r="F27" t="n">
-        <v>2.574048763266987</v>
+        <v>2.498820391138429</v>
       </c>
       <c r="G27" t="n">
-        <v>1.975966184851256</v>
+        <v>1.91204956237795</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-5.535641266546303</v>
       </c>
       <c r="E28" t="n">
-        <v>-25.49527246806867</v>
+        <v>-25.49772072870007</v>
       </c>
       <c r="F28" t="n">
-        <v>2.84068660294158</v>
+        <v>2.763075431695828</v>
       </c>
       <c r="G28" t="n">
-        <v>1.92760321815392</v>
+        <v>1.856066875426729</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-6.361477436119057</v>
       </c>
       <c r="E29" t="n">
-        <v>-25.70807475845808</v>
+        <v>-25.6992636386456</v>
       </c>
       <c r="F29" t="n">
-        <v>2.67101035811281</v>
+        <v>2.605496474692813</v>
       </c>
       <c r="G29" t="n">
-        <v>1.828049347345435</v>
+        <v>1.751380821904287</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-6.981157922485792</v>
       </c>
       <c r="E30" t="n">
-        <v>-25.36400903977752</v>
+        <v>-25.36938997624547</v>
       </c>
       <c r="F30" t="n">
-        <v>2.642600060946264</v>
+        <v>2.57119464124749</v>
       </c>
       <c r="G30" t="n">
-        <v>1.958029729958092</v>
+        <v>1.866383610066009</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-7.375698385915306</v>
       </c>
       <c r="E31" t="n">
-        <v>-24.59657752410407</v>
+        <v>-24.61226210290845</v>
       </c>
       <c r="F31" t="n">
-        <v>2.555457693231736</v>
+        <v>2.487115872397926</v>
       </c>
       <c r="G31" t="n">
-        <v>1.426482234584013</v>
+        <v>1.332427130969053</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-7.550100888001433</v>
       </c>
       <c r="E32" t="n">
-        <v>-24.71974990923902</v>
+        <v>-24.72300989264662</v>
       </c>
       <c r="F32" t="n">
-        <v>2.535190808432744</v>
+        <v>2.466534772330732</v>
       </c>
       <c r="G32" t="n">
-        <v>1.531325395740556</v>
+        <v>1.419386206443798</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-7.522364542050254</v>
       </c>
       <c r="E33" t="n">
-        <v>-24.14980268963016</v>
+        <v>-24.15850907101991</v>
       </c>
       <c r="F33" t="n">
-        <v>2.590623618664612</v>
+        <v>2.51893016830332</v>
       </c>
       <c r="G33" t="n">
-        <v>0.7686202013929619</v>
+        <v>0.6695114688810956</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-7.323347431553924</v>
       </c>
       <c r="E34" t="n">
-        <v>-23.50592323587408</v>
+        <v>-23.52014147676019</v>
       </c>
       <c r="F34" t="n">
-        <v>2.568288150016627</v>
+        <v>2.493138331705119</v>
       </c>
       <c r="G34" t="n">
-        <v>0.7003831189818857</v>
+        <v>0.6013660325899114</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-6.995720948917759</v>
       </c>
       <c r="E35" t="n">
-        <v>-22.87046213284522</v>
+        <v>-22.89485309303935</v>
       </c>
       <c r="F35" t="n">
-        <v>2.444042196048647</v>
+        <v>2.3675307782416</v>
       </c>
       <c r="G35" t="n">
-        <v>0.7539960991187539</v>
+        <v>0.6480008153121397</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-6.582254790691236</v>
       </c>
       <c r="E36" t="n">
-        <v>-22.06679112290586</v>
+        <v>-22.09077622171191</v>
       </c>
       <c r="F36" t="n">
-        <v>2.299555541887358</v>
+        <v>2.228071568371534</v>
       </c>
       <c r="G36" t="n">
-        <v>0.7699425239799763</v>
+        <v>0.6537614285624992</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-6.124729306668159</v>
       </c>
       <c r="E37" t="n">
-        <v>-21.11934044315867</v>
+        <v>-21.15602507572119</v>
       </c>
       <c r="F37" t="n">
-        <v>2.341922233883184</v>
+        <v>2.270726291029877</v>
       </c>
       <c r="G37" t="n">
-        <v>0.7089323927375328</v>
+        <v>0.5940867122099117</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-5.660103553167374</v>
       </c>
       <c r="E38" t="n">
-        <v>-20.99220109026267</v>
+        <v>-21.01444491279076</v>
       </c>
       <c r="F38" t="n">
-        <v>2.170046482177004</v>
+        <v>2.097593678250892</v>
       </c>
       <c r="G38" t="n">
-        <v>0.41408064043902</v>
+        <v>0.3068284955596001</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-5.215946090032867</v>
       </c>
       <c r="E39" t="n">
-        <v>-20.13731299160648</v>
+        <v>-20.16949387199145</v>
       </c>
       <c r="F39" t="n">
-        <v>2.412149346326202</v>
+        <v>2.336685312746493</v>
       </c>
       <c r="G39" t="n">
-        <v>0.2486724863366529</v>
+        <v>0.1454527707324845</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-4.812963302271973</v>
       </c>
       <c r="E40" t="n">
-        <v>-19.61911964513097</v>
+        <v>-19.65157546387561</v>
       </c>
       <c r="F40" t="n">
-        <v>2.247867130268224</v>
+        <v>2.169130020978083</v>
       </c>
       <c r="G40" t="n">
-        <v>-0.07025601088779417</v>
+        <v>-0.1659738369636534</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-4.464925069461871</v>
       </c>
       <c r="E41" t="n">
-        <v>-18.66741396696021</v>
+        <v>-18.71856559416284</v>
       </c>
       <c r="F41" t="n">
-        <v>2.46810584867174</v>
+        <v>2.393165507205699</v>
       </c>
       <c r="G41" t="n">
-        <v>-0.1348010638975037</v>
+        <v>-0.2345644115514563</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-4.176828603863166</v>
       </c>
       <c r="E42" t="n">
-        <v>-18.39646875965069</v>
+        <v>-18.42558604117069</v>
       </c>
       <c r="F42" t="n">
-        <v>2.476196891827926</v>
+        <v>2.407226640457713</v>
       </c>
       <c r="G42" t="n">
-        <v>-0.3816826185839322</v>
+        <v>-0.4775968292024173</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-3.953001326200457</v>
       </c>
       <c r="E43" t="n">
-        <v>-17.47958860703893</v>
+        <v>-17.52246589884559</v>
       </c>
       <c r="F43" t="n">
-        <v>2.824975839531509</v>
+        <v>2.747102822228922</v>
       </c>
       <c r="G43" t="n">
-        <v>-0.3838690331585004</v>
+        <v>-0.4726479387282448</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-3.788469822912716</v>
       </c>
       <c r="E44" t="n">
-        <v>-17.02871588177557</v>
+        <v>-17.07299404998629</v>
       </c>
       <c r="F44" t="n">
-        <v>2.760745001790001</v>
+        <v>2.684233583982953</v>
       </c>
       <c r="G44" t="n">
-        <v>-0.7120668807948894</v>
+        <v>-0.7986200948815405</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-3.679220301318464</v>
       </c>
       <c r="E45" t="n">
-        <v>-16.29986738257668</v>
+        <v>-16.34892424132463</v>
       </c>
       <c r="F45" t="n">
-        <v>2.709475543861801</v>
+        <v>2.638410524036912</v>
       </c>
       <c r="G45" t="n">
-        <v>-0.7570389410562185</v>
+        <v>-0.8439456473195962</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-3.615758910381339</v>
       </c>
       <c r="E46" t="n">
-        <v>-15.82610931194598</v>
+        <v>-15.87609572419569</v>
       </c>
       <c r="F46" t="n">
-        <v>2.872003391338989</v>
+        <v>2.794680250755754</v>
       </c>
       <c r="G46" t="n">
-        <v>-0.9190169118140534</v>
+        <v>-1.00340989593182</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-3.588423081861993</v>
       </c>
       <c r="E47" t="n">
-        <v>-15.09567664410324</v>
+        <v>-15.15807455944691</v>
       </c>
       <c r="F47" t="n">
-        <v>2.847782631081795</v>
+        <v>2.770747521161079</v>
       </c>
       <c r="G47" t="n">
-        <v>-1.250553296675083</v>
+        <v>-1.335627080540619</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-3.589185590223876</v>
       </c>
       <c r="E48" t="n">
-        <v>-14.44398108555064</v>
+        <v>-14.50522687824424</v>
       </c>
       <c r="F48" t="n">
-        <v>2.712643881149499</v>
+        <v>2.637048924541372</v>
       </c>
       <c r="G48" t="n">
-        <v>-1.289267236178067</v>
+        <v>-1.372481913040078</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-3.608937654904256</v>
       </c>
       <c r="E49" t="n">
-        <v>-13.83827878688103</v>
+        <v>-13.9072359459484</v>
       </c>
       <c r="F49" t="n">
-        <v>3.106329427600202</v>
+        <v>3.018689552377687</v>
       </c>
       <c r="G49" t="n">
-        <v>-1.475727813249929</v>
+        <v>-1.5630403809014</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-3.645621116825942</v>
       </c>
       <c r="E50" t="n">
-        <v>-13.24345619187289</v>
+        <v>-13.31312033529371</v>
       </c>
       <c r="F50" t="n">
-        <v>3.161500391775236</v>
+        <v>3.074358024060707</v>
       </c>
       <c r="G50" t="n">
-        <v>-1.435311874377521</v>
+        <v>-1.531972346257984</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-3.695478876581515</v>
       </c>
       <c r="E51" t="n">
-        <v>-12.38810986261724</v>
+        <v>-12.45506389934983</v>
       </c>
       <c r="F51" t="n">
-        <v>3.146077659027682</v>
+        <v>3.055478923362938</v>
       </c>
       <c r="G51" t="n">
-        <v>-1.444764517029247</v>
+        <v>-1.547368894399854</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-3.759104388658707</v>
       </c>
       <c r="E52" t="n">
-        <v>-12.36275007201282</v>
+        <v>-12.40684494798375</v>
       </c>
       <c r="F52" t="n">
-        <v>3.10805761157531</v>
+        <v>3.015102261399055</v>
       </c>
       <c r="G52" t="n">
-        <v>-1.541176235155718</v>
+        <v>-1.646975134419706</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-3.835587023228317</v>
       </c>
       <c r="E53" t="n">
-        <v>-11.56519316750055</v>
+        <v>-11.62420017640821</v>
       </c>
       <c r="F53" t="n">
-        <v>3.381529633333284</v>
+        <v>3.282263793187317</v>
       </c>
       <c r="G53" t="n">
-        <v>-1.685715258528374</v>
+        <v>-1.7871020517347</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-3.925923712484121</v>
       </c>
       <c r="E54" t="n">
-        <v>-11.32720128644365</v>
+        <v>-11.38154743553966</v>
       </c>
       <c r="F54" t="n">
-        <v>3.039741975347183</v>
+        <v>2.946262933057259</v>
       </c>
       <c r="G54" t="n">
-        <v>-1.753363187311572</v>
+        <v>-1.861531793389913</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-4.029914650931903</v>
       </c>
       <c r="E55" t="n">
-        <v>-10.74746102430918</v>
+        <v>-10.80352226507745</v>
       </c>
       <c r="F55" t="n">
-        <v>2.920418727247692</v>
+        <v>2.823588055430286</v>
       </c>
       <c r="G55" t="n">
-        <v>-2.142584258493247</v>
+        <v>-2.255479185897451</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-4.143606757515772</v>
       </c>
       <c r="E56" t="n">
-        <v>-10.19507058281107</v>
+        <v>-10.25883009765028</v>
       </c>
       <c r="F56" t="n">
-        <v>3.140997845525092</v>
+        <v>3.037856683737974</v>
       </c>
       <c r="G56" t="n">
-        <v>-2.415872988011436</v>
+        <v>-2.521187472070281</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-4.262235437721627</v>
       </c>
       <c r="E57" t="n">
-        <v>-9.595665681808329</v>
+        <v>-9.647445739547356</v>
       </c>
       <c r="F57" t="n">
-        <v>3.161788422437753</v>
+        <v>3.050451479071715</v>
       </c>
       <c r="G57" t="n">
-        <v>-2.898861132145553</v>
+        <v>-2.993361374057132</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-4.376918428678601</v>
       </c>
       <c r="E58" t="n">
-        <v>-9.46217656203409</v>
+        <v>-9.507515206774988</v>
       </c>
       <c r="F58" t="n">
-        <v>3.121359391262503</v>
+        <v>3.006330418495098</v>
       </c>
       <c r="G58" t="n">
-        <v>-2.724969165801747</v>
+        <v>-2.834001863867642</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-4.47987133770506</v>
       </c>
       <c r="E59" t="n">
-        <v>-8.864499845006453</v>
+        <v>-8.91195944280771</v>
       </c>
       <c r="F59" t="n">
-        <v>3.226700059927031</v>
+        <v>3.108162349998044</v>
       </c>
       <c r="G59" t="n">
-        <v>-3.090938307136516</v>
+        <v>-3.191447916052447</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-4.561597207640201</v>
       </c>
       <c r="E60" t="n">
-        <v>-8.751068133185738</v>
+        <v>-8.793670486632715</v>
       </c>
       <c r="F60" t="n">
-        <v>3.024502534839414</v>
+        <v>2.910206731031145</v>
       </c>
       <c r="G60" t="n">
-        <v>-2.807345935281888</v>
+        <v>-2.919913555115048</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-4.612721141929355</v>
       </c>
       <c r="E61" t="n">
-        <v>-8.312410526473707</v>
+        <v>-8.34838817468277</v>
       </c>
       <c r="F61" t="n">
-        <v>3.088785741792289</v>
+        <v>2.971766738992941</v>
       </c>
       <c r="G61" t="n">
-        <v>-3.268928164269782</v>
+        <v>-3.379008246563015</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-4.627434481509432</v>
       </c>
       <c r="E62" t="n">
-        <v>-7.939292987787355</v>
+        <v>-7.971958283377462</v>
       </c>
       <c r="F62" t="n">
-        <v>2.901015934436253</v>
+        <v>2.792245082427193</v>
       </c>
       <c r="G62" t="n">
-        <v>-3.388238320066431</v>
+        <v>-3.489468005638658</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-4.600013787482127</v>
       </c>
       <c r="E63" t="n">
-        <v>-7.750855472986392</v>
+        <v>-7.778022001382974</v>
       </c>
       <c r="F63" t="n">
-        <v>3.185459305975594</v>
+        <v>3.063203382039556</v>
       </c>
       <c r="G63" t="n">
-        <v>-3.367840512239022</v>
+        <v>-3.472081427464845</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-4.528146277996773</v>
       </c>
       <c r="E64" t="n">
-        <v>-7.487045570725612</v>
+        <v>-7.509695254641798</v>
       </c>
       <c r="F64" t="n">
-        <v>3.043250712508766</v>
+        <v>2.920418727247692</v>
       </c>
       <c r="G64" t="n">
-        <v>-3.696745344228865</v>
+        <v>-3.795186369295803</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-4.412416710696307</v>
       </c>
       <c r="E65" t="n">
-        <v>-7.202065414769761</v>
+        <v>-7.223157114647782</v>
       </c>
       <c r="F65" t="n">
-        <v>3.142202337386531</v>
+        <v>3.015102261399055</v>
       </c>
       <c r="G65" t="n">
-        <v>-3.734189330356201</v>
+        <v>-3.836466400155765</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-4.253900234841841</v>
       </c>
       <c r="E66" t="n">
-        <v>-6.988045540216064</v>
+        <v>-7.009569286087862</v>
       </c>
       <c r="F66" t="n">
-        <v>2.991195716410063</v>
+        <v>2.868232808120572</v>
       </c>
       <c r="G66" t="n">
-        <v>-3.788273633395371</v>
+        <v>-3.885483981995188</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-4.058240756491583</v>
       </c>
       <c r="E67" t="n">
-        <v>-7.085255888815881</v>
+        <v>-7.094551423833506</v>
       </c>
       <c r="F67" t="n">
-        <v>2.990698208902077</v>
+        <v>2.866111855060212</v>
       </c>
       <c r="G67" t="n">
-        <v>-3.674226583341096</v>
+        <v>-3.766147641592855</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-3.829107341362597</v>
       </c>
       <c r="E68" t="n">
-        <v>-6.775361080552225</v>
+        <v>-6.788793783267836</v>
       </c>
       <c r="F68" t="n">
-        <v>2.956867698359057</v>
+        <v>2.832962144264962</v>
       </c>
       <c r="G68" t="n">
-        <v>-3.651171038036816</v>
+        <v>-3.744362049664222</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-3.572671186207335</v>
       </c>
       <c r="E69" t="n">
-        <v>-6.950536092574519</v>
+        <v>-6.953115276234339</v>
       </c>
       <c r="F69" t="n">
-        <v>2.718142648343024</v>
+        <v>2.59986678447087</v>
       </c>
       <c r="G69" t="n">
-        <v>-3.693027130221815</v>
+        <v>-3.787134603048142</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-3.295521428639483</v>
       </c>
       <c r="E70" t="n">
-        <v>-6.7019001693073</v>
+        <v>-6.709873381737911</v>
       </c>
       <c r="F70" t="n">
-        <v>2.781928347787913</v>
+        <v>2.659122547132523</v>
       </c>
       <c r="G70" t="n">
-        <v>-3.498802817564808</v>
+        <v>-3.589283722503977</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-3.00265750506182</v>
       </c>
       <c r="E71" t="n">
-        <v>-6.620911183928382</v>
+        <v>-6.622757198629065</v>
       </c>
       <c r="F71" t="n">
-        <v>2.68936576669691</v>
+        <v>2.574310609323821</v>
       </c>
       <c r="G71" t="n">
-        <v>-3.490960528162614</v>
+        <v>-3.579281203132898</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-2.702617412379759</v>
       </c>
       <c r="E72" t="n">
-        <v>-6.791399151533339</v>
+        <v>-6.789736429072439</v>
       </c>
       <c r="F72" t="n">
-        <v>2.836994573540213</v>
+        <v>2.712355850486981</v>
       </c>
       <c r="G72" t="n">
-        <v>-3.36585048220708</v>
+        <v>-3.448803313012256</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-2.399400223501574</v>
       </c>
       <c r="E73" t="n">
-        <v>-6.936880820710599</v>
+        <v>-6.934039790993944</v>
       </c>
       <c r="F73" t="n">
-        <v>2.592823125542022</v>
+        <v>2.481276705330516</v>
       </c>
       <c r="G73" t="n">
-        <v>-3.28529354282194</v>
+        <v>-3.362394114256865</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-2.101195771525215</v>
       </c>
       <c r="E74" t="n">
-        <v>-7.209095981395768</v>
+        <v>-7.206621536158681</v>
       </c>
       <c r="F74" t="n">
-        <v>2.726128953076477</v>
+        <v>2.611440380182956</v>
       </c>
       <c r="G74" t="n">
-        <v>-3.253806554487588</v>
+        <v>-3.328314849959852</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-1.814153627981205</v>
       </c>
       <c r="E75" t="n">
-        <v>-7.377855765025616</v>
+        <v>-7.373273459031013</v>
       </c>
       <c r="F75" t="n">
-        <v>2.279367210905416</v>
+        <v>2.170648728107723</v>
       </c>
       <c r="G75" t="n">
-        <v>-2.989276575570513</v>
+        <v>-3.065447593503675</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-1.543908569619594</v>
       </c>
       <c r="E76" t="n">
-        <v>-7.815439802904627</v>
+        <v>-7.81030762019067</v>
       </c>
       <c r="F76" t="n">
-        <v>2.527413980544758</v>
+        <v>2.411808946452317</v>
       </c>
       <c r="G76" t="n">
-        <v>-2.915331249120444</v>
+        <v>-2.989171837147779</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-1.297839323842978</v>
       </c>
       <c r="E77" t="n">
-        <v>-8.136188130224074</v>
+        <v>-8.137300975965621</v>
       </c>
       <c r="F77" t="n">
-        <v>2.375281421523902</v>
+        <v>2.267322292291028</v>
       </c>
       <c r="G77" t="n">
-        <v>-2.786725558306169</v>
+        <v>-2.859505669803324</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-1.078725944398409</v>
       </c>
       <c r="E78" t="n">
-        <v>-8.486852369536864</v>
+        <v>-8.494891043481685</v>
       </c>
       <c r="F78" t="n">
-        <v>2.271380906171963</v>
+        <v>2.167375652397292</v>
       </c>
       <c r="G78" t="n">
-        <v>-2.623385988052795</v>
+        <v>-2.691479055132612</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.8922137174945544</v>
       </c>
       <c r="E79" t="n">
-        <v>-8.947217014360479</v>
+        <v>-8.960466424836305</v>
       </c>
       <c r="F79" t="n">
-        <v>2.380963480957211</v>
+        <v>2.268526784152467</v>
       </c>
       <c r="G79" t="n">
-        <v>-2.337397724778131</v>
+        <v>-2.406302514634135</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.7390332448968763</v>
       </c>
       <c r="E80" t="n">
-        <v>-9.344790974755174</v>
+        <v>-9.365555367062152</v>
       </c>
       <c r="F80" t="n">
-        <v>2.092382941719884</v>
+        <v>1.987094642266724</v>
       </c>
       <c r="G80" t="n">
-        <v>-1.786670005740923</v>
+        <v>-1.862841023674086</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.6217796910020686</v>
       </c>
       <c r="E81" t="n">
-        <v>-9.984336876270651</v>
+        <v>-10.01509069564587</v>
       </c>
       <c r="F81" t="n">
-        <v>2.23600550389362</v>
+        <v>2.130533912200674</v>
       </c>
       <c r="G81" t="n">
-        <v>-1.891041843995164</v>
+        <v>-1.961884294671743</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.5421295587633216</v>
       </c>
       <c r="E82" t="n">
-        <v>-10.63985538725303</v>
+        <v>-10.67507368189728</v>
       </c>
       <c r="F82" t="n">
-        <v>2.21552914224916</v>
+        <v>2.107465274593553</v>
       </c>
       <c r="G82" t="n">
-        <v>-1.664806850890137</v>
+        <v>-1.740179238349954</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.5006220615512651</v>
       </c>
       <c r="E83" t="n">
-        <v>-11.24021602636322</v>
+        <v>-11.28006899621344</v>
       </c>
       <c r="F83" t="n">
-        <v>1.899114367170325</v>
+        <v>1.803671479454142</v>
       </c>
       <c r="G83" t="n">
-        <v>-1.262833876740622</v>
+        <v>-1.343403908428604</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.4971256527081909</v>
       </c>
       <c r="E84" t="n">
-        <v>-12.12347514527743</v>
+        <v>-12.17779510976775</v>
       </c>
       <c r="F84" t="n">
-        <v>1.95679905349097</v>
+        <v>1.853919737760686</v>
       </c>
       <c r="G84" t="n">
-        <v>-1.115270531411527</v>
+        <v>-1.193837440764725</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.5281322062321583</v>
       </c>
       <c r="E85" t="n">
-        <v>-12.75507401896798</v>
+        <v>-12.82003802566862</v>
       </c>
       <c r="F85" t="n">
-        <v>1.877983390383779</v>
+        <v>1.775758689795581</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.8135976893324751</v>
+        <v>-0.8886165846155655</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.5903630506136662</v>
       </c>
       <c r="E86" t="n">
-        <v>-13.55141333931597</v>
+        <v>-13.62799021863722</v>
       </c>
       <c r="F86" t="n">
-        <v>1.843419710881622</v>
+        <v>1.73797430379436</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.6073415503639227</v>
+        <v>-0.6765081862767615</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-0.6783262104457618</v>
       </c>
       <c r="E87" t="n">
-        <v>-14.37518103411737</v>
+        <v>-14.45984895659481</v>
       </c>
       <c r="F87" t="n">
-        <v>1.858816259023492</v>
+        <v>1.749416976478029</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.2166803258696585</v>
+        <v>-0.2861742693535405</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-0.7870739112244978</v>
       </c>
       <c r="E88" t="n">
-        <v>-15.56929069940268</v>
+        <v>-15.6578732204298</v>
       </c>
       <c r="F88" t="n">
-        <v>1.879999605021405</v>
+        <v>1.773061675410186</v>
       </c>
       <c r="G88" t="n">
-        <v>0.06058846371241616</v>
+        <v>-0.009272064251034136</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-0.9100975206970893</v>
       </c>
       <c r="E89" t="n">
-        <v>-16.50683050589869</v>
+        <v>-16.62030149462792</v>
       </c>
       <c r="F89" t="n">
-        <v>1.622552561941703</v>
+        <v>1.522291706779765</v>
       </c>
       <c r="G89" t="n">
-        <v>0.2446662416670847</v>
+        <v>0.1803437578056845</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-1.04171311903776</v>
       </c>
       <c r="E90" t="n">
-        <v>-17.90728795627244</v>
+        <v>-18.02692541964013</v>
       </c>
       <c r="F90" t="n">
-        <v>1.582202084583503</v>
+        <v>1.477934984751997</v>
       </c>
       <c r="G90" t="n">
-        <v>0.705240363336166</v>
+        <v>0.6370818347421401</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-1.17581296531241</v>
       </c>
       <c r="E91" t="n">
-        <v>-19.05476283883552</v>
+        <v>-19.1961073403148</v>
       </c>
       <c r="F91" t="n">
-        <v>1.272516753165315</v>
+        <v>1.175594435228017</v>
       </c>
       <c r="G91" t="n">
-        <v>0.6748007592291529</v>
+        <v>0.6055293848935803</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-1.307175863647412</v>
       </c>
       <c r="E92" t="n">
-        <v>-20.33686587152007</v>
+        <v>-20.49367238265543</v>
       </c>
       <c r="F92" t="n">
-        <v>1.063759984353993</v>
+        <v>0.9749810787842482</v>
       </c>
       <c r="G92" t="n">
-        <v>1.172072605763592</v>
+        <v>1.088988851929999</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-1.432675315111046</v>
       </c>
       <c r="E93" t="n">
-        <v>-21.92763303600115</v>
+        <v>-22.1013809870137</v>
       </c>
       <c r="F93" t="n">
-        <v>0.9240520207299339</v>
+        <v>0.8330997928884628</v>
       </c>
       <c r="G93" t="n">
-        <v>1.169860006583341</v>
+        <v>1.089211421078308</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-1.548758805202096</v>
       </c>
       <c r="E94" t="n">
-        <v>-23.55803060118415</v>
+        <v>-23.7524905752923</v>
       </c>
       <c r="F94" t="n">
-        <v>1.027546674693778</v>
+        <v>0.9353899549908686</v>
       </c>
       <c r="G94" t="n">
-        <v>1.332741346237255</v>
+        <v>1.240872657196863</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-1.655076891295011</v>
       </c>
       <c r="E95" t="n">
-        <v>-25.22665769066498</v>
+        <v>-25.45132160742899</v>
       </c>
       <c r="F95" t="n">
-        <v>0.3040922042656793</v>
+        <v>0.2223176807162583</v>
       </c>
       <c r="G95" t="n">
-        <v>1.308599139797112</v>
+        <v>1.208521576874958</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-1.748600831180105</v>
       </c>
       <c r="E96" t="n">
-        <v>-26.99177505208932</v>
+        <v>-27.22477876576352</v>
       </c>
       <c r="F96" t="n">
-        <v>0.4688850201344854</v>
+        <v>0.3687812726066478</v>
       </c>
       <c r="G96" t="n">
-        <v>1.017426324597124</v>
+        <v>0.9179379153028477</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-1.828825337365981</v>
       </c>
       <c r="E97" t="n">
-        <v>-28.90394515903194</v>
+        <v>-29.15455802002826</v>
       </c>
       <c r="F97" t="n">
-        <v>-0.1578304245960998</v>
+        <v>-0.237876764170413</v>
       </c>
       <c r="G97" t="n">
-        <v>1.19329522867003</v>
+        <v>1.085872883853668</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-1.890269642272868</v>
       </c>
       <c r="E98" t="n">
-        <v>-31.13128627228343</v>
+        <v>-31.39386549807709</v>
       </c>
       <c r="F98" t="n">
-        <v>-0.4310536926000811</v>
+        <v>-0.5250040577923074</v>
       </c>
       <c r="G98" t="n">
-        <v>1.066116598865503</v>
+        <v>0.9483644271070192</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-1.930706900495491</v>
       </c>
       <c r="E99" t="n">
-        <v>-33.30938723454719</v>
+        <v>-33.59380442148085</v>
       </c>
       <c r="F99" t="n">
-        <v>-0.4036907796608737</v>
+        <v>-0.4935301617607979</v>
       </c>
       <c r="G99" t="n">
-        <v>0.6865969240895481</v>
+        <v>0.5636994773142655</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-1.937547945377635</v>
       </c>
       <c r="E100" t="n">
-        <v>-35.27849576654847</v>
+        <v>-35.58598159108925</v>
       </c>
       <c r="F100" t="n">
-        <v>-0.4739964459209426</v>
+        <v>-0.5665852116176294</v>
       </c>
       <c r="G100" t="n">
-        <v>0.4954885795088727</v>
+        <v>0.3655867507132666</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-1.910820745105439</v>
       </c>
       <c r="E101" t="n">
-        <v>-37.09667623139034</v>
+        <v>-37.43797947417129</v>
       </c>
       <c r="F101" t="n">
-        <v>-0.8319923748251002</v>
+        <v>-0.9196191577447729</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.07366000962664294</v>
+        <v>-0.1969895023957025</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-1.826670781806889</v>
       </c>
       <c r="E102" t="n">
-        <v>-39.40160233128189</v>
+        <v>-39.75152030933271</v>
       </c>
       <c r="F102" t="n">
-        <v>-0.7412496238290969</v>
+        <v>-0.8383290494004957</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.6098421802066923</v>
+        <v>-0.7304091970761477</v>
       </c>
     </row>
   </sheetData>
